--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H2">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I2">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J2">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N2">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O2">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P2">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q2">
-        <v>2.870301171427556</v>
+        <v>3.805642770716445</v>
       </c>
       <c r="R2">
-        <v>25.832710542848</v>
+        <v>34.250784936448</v>
       </c>
       <c r="S2">
-        <v>0.0230886616824265</v>
+        <v>0.03325980815859512</v>
       </c>
       <c r="T2">
-        <v>0.02308866168242651</v>
+        <v>0.03325980815859512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H3">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I3">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J3">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.374949</v>
       </c>
       <c r="O3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P3">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q3">
-        <v>13.27113729875022</v>
+        <v>20.95238460595911</v>
       </c>
       <c r="R3">
-        <v>119.440235688752</v>
+        <v>188.571461453632</v>
       </c>
       <c r="S3">
-        <v>0.1067528391382984</v>
+        <v>0.1831155298709525</v>
       </c>
       <c r="T3">
-        <v>0.1067528391382985</v>
+        <v>0.1831155298709525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.95628266666667</v>
+        <v>45.71598933333333</v>
       </c>
       <c r="H4">
-        <v>86.868848</v>
+        <v>137.147968</v>
       </c>
       <c r="I4">
-        <v>0.5491054194301004</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="J4">
-        <v>0.5491054194301005</v>
+        <v>0.6549002937372808</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N4">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O4">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P4">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q4">
-        <v>52.12141497303645</v>
+        <v>50.17675746985956</v>
       </c>
       <c r="R4">
-        <v>469.092734757328</v>
+        <v>451.590817228736</v>
       </c>
       <c r="S4">
-        <v>0.4192639186093754</v>
+        <v>0.4385249557077331</v>
       </c>
       <c r="T4">
-        <v>0.4192639186093755</v>
+        <v>0.4385249557077331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J5">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N5">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O5">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P5">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q5">
-        <v>1.258048474122667</v>
+        <v>1.056507565282667</v>
       </c>
       <c r="R5">
-        <v>11.322436267104</v>
+        <v>9.508568087543999</v>
       </c>
       <c r="S5">
-        <v>0.01011972398167007</v>
+        <v>0.00923345701540732</v>
       </c>
       <c r="T5">
-        <v>0.01011972398167008</v>
+        <v>0.009233457015407318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>38.074479</v>
       </c>
       <c r="I6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J6">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>1.374949</v>
       </c>
       <c r="O6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P6">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q6">
         <v>5.816718536285666</v>
@@ -821,10 +821,10 @@
         <v>52.35046682657099</v>
       </c>
       <c r="S6">
-        <v>0.04678960093912517</v>
+        <v>0.05083581257759105</v>
       </c>
       <c r="T6">
-        <v>0.04678960093912517</v>
+        <v>0.05083581257759104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>38.074479</v>
       </c>
       <c r="I7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="J7">
-        <v>0.2406720388519202</v>
+        <v>0.1818108415648851</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N7">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O7">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P7">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q7">
-        <v>22.84473393547433</v>
+        <v>13.92987389047033</v>
       </c>
       <c r="R7">
-        <v>205.602605419269</v>
+        <v>125.368865014233</v>
       </c>
       <c r="S7">
-        <v>0.1837627139311249</v>
+        <v>0.1217415719718867</v>
       </c>
       <c r="T7">
-        <v>0.1837627139311249</v>
+        <v>0.1217415719718867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H8">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J8">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N8">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O8">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P8">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q8">
-        <v>1.050422467345778</v>
+        <v>0.9363307450488889</v>
       </c>
       <c r="R8">
-        <v>9.453802206112002</v>
+        <v>8.42697670544</v>
       </c>
       <c r="S8">
-        <v>0.00844958334463004</v>
+        <v>0.008183159279413318</v>
       </c>
       <c r="T8">
-        <v>0.00844958334463004</v>
+        <v>0.008183159279413318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H9">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J9">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +995,22 @@
         <v>1.374949</v>
       </c>
       <c r="O9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P9">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q9">
-        <v>4.856738005268111</v>
+        <v>5.155071842162222</v>
       </c>
       <c r="R9">
-        <v>43.710642047413</v>
+        <v>46.39564657945999</v>
       </c>
       <c r="S9">
-        <v>0.03906753124030092</v>
+        <v>0.0450532829390639</v>
       </c>
       <c r="T9">
-        <v>0.03906753124030093</v>
+        <v>0.04505328293906389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.59691233333333</v>
+        <v>11.24784666666667</v>
       </c>
       <c r="H10">
-        <v>31.790737</v>
+        <v>33.74354</v>
       </c>
       <c r="I10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="J10">
-        <v>0.200951968125294</v>
+        <v>0.161130015850732</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N10">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O10">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P10">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q10">
-        <v>19.07448105534522</v>
+        <v>12.34536280373111</v>
       </c>
       <c r="R10">
-        <v>171.670329498107</v>
+        <v>111.10826523358</v>
       </c>
       <c r="S10">
-        <v>0.153434853540363</v>
+        <v>0.1078935736322548</v>
       </c>
       <c r="T10">
-        <v>0.1534348535403631</v>
+        <v>0.1078935736322548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H11">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I11">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J11">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09912533333333334</v>
+        <v>0.08324533333333334</v>
       </c>
       <c r="N11">
-        <v>0.297376</v>
+        <v>0.249736</v>
       </c>
       <c r="O11">
-        <v>0.04204777601064202</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="P11">
-        <v>0.04204777601064203</v>
+        <v>0.05078606388889115</v>
       </c>
       <c r="Q11">
-        <v>0.04845943474844445</v>
+        <v>0.01254512723022222</v>
       </c>
       <c r="R11">
-        <v>0.436134912736</v>
+        <v>0.112906145072</v>
       </c>
       <c r="S11">
-        <v>0.0003898070019154071</v>
+        <v>0.0001096394354753923</v>
       </c>
       <c r="T11">
-        <v>0.0003898070019154073</v>
+        <v>0.0001096394354753923</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H12">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I12">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J12">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,22 +1181,22 @@
         <v>1.374949</v>
       </c>
       <c r="O12">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="P12">
-        <v>0.1944122847104549</v>
+        <v>0.2796082573516313</v>
       </c>
       <c r="Q12">
-        <v>0.2240572586487778</v>
+        <v>0.06906857697755556</v>
       </c>
       <c r="R12">
-        <v>2.016515327839</v>
+        <v>0.621617192798</v>
       </c>
       <c r="S12">
-        <v>0.001802313392730372</v>
+        <v>0.0006036319640238301</v>
       </c>
       <c r="T12">
-        <v>0.001802313392730373</v>
+        <v>0.0006036319640238298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4888703333333333</v>
+        <v>0.1507006666666667</v>
       </c>
       <c r="H13">
-        <v>1.466611</v>
+        <v>0.452102</v>
       </c>
       <c r="I13">
-        <v>0.009270573592685365</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="J13">
-        <v>0.009270573592685367</v>
+        <v>0.00215884884710222</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.800003666666667</v>
+        <v>1.097575666666667</v>
       </c>
       <c r="N13">
-        <v>5.400011</v>
+        <v>3.292727</v>
       </c>
       <c r="O13">
-        <v>0.763539939278903</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="P13">
-        <v>0.7635399392789031</v>
+        <v>0.6696056787594775</v>
       </c>
       <c r="Q13">
-        <v>0.8799683925245555</v>
+        <v>0.1654053846837778</v>
       </c>
       <c r="R13">
-        <v>7.919715532721</v>
+        <v>1.488648462154</v>
       </c>
       <c r="S13">
-        <v>0.007078453198039585</v>
+        <v>0.001445577447602998</v>
       </c>
       <c r="T13">
-        <v>0.007078453198039588</v>
+        <v>0.001445577447602997</v>
       </c>
     </row>
   </sheetData>
